--- a/data/out/wiki/women/uefa/eu/standings_eu_uefa_women.xlsx
+++ b/data/out/wiki/women/uefa/eu/standings_eu_uefa_women.xlsx
@@ -517,7 +517,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -565,7 +565,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy']</t>
+          <t>['Italy', 'Norway']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -705,7 +705,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Germany', 'Sweden']</t>
+          <t>['Sweden', 'Germany']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -747,7 +747,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy']</t>
+          <t>['Italy', 'Norway']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Norway', 'Denmark']</t>
+          <t>['Denmark', 'Norway']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -941,7 +941,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Finland', 'Sweden']</t>
+          <t>['Sweden', 'Finland']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1081,7 +1081,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Finland']</t>
+          <t>['Finland', 'Netherlands']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1217,7 +1217,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1265,7 +1265,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden']</t>
+          <t>['Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1311,7 +1311,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden']</t>
+          <t>['Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1359,7 +1359,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1411,7 +1411,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden']</t>
+          <t>['Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1593,7 +1593,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1687,7 +1687,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Germany', 'Russia']</t>
+          <t>['Russia', 'Germany']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1735,7 +1735,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Germany', 'Sweden']</t>
+          <t>['Sweden', 'Germany']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1781,7 +1781,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1881,7 +1881,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1927,7 +1927,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1975,7 +1975,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Spain', 'England']</t>
+          <t>['England', 'Spain']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2027,7 +2027,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2079,7 +2079,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Spain', 'England']</t>
+          <t>['England', 'Spain']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2209,7 +2209,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Sweden']</t>
+          <t>['Sweden', 'Netherlands']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2299,7 +2299,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">

--- a/data/out/wiki/women/uefa/eu/standings_eu_uefa_women.xlsx
+++ b/data/out/wiki/women/uefa/eu/standings_eu_uefa_women.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,30 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>scorer_team</t>
+          <t>new_top_teams</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>new_top_teams</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>scorer_nationality</t>
         </is>
@@ -514,28 +509,27 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['France', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -562,28 +556,27 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Spain', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
@@ -608,28 +601,27 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Norway', 'Italy']</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway']</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -656,28 +648,27 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Germany', 'Italy']</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
@@ -702,28 +693,27 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Germany']</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Sweden', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -744,28 +734,27 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Norway', 'Italy']</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway']</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -792,28 +781,27 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Norway', 'Denmark']</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Denmark', 'Norway']</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
         <is>
           <t>France</t>
         </is>
@@ -838,28 +826,27 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['Denmark', 'England']</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Denmark', 'England']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -886,28 +873,27 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
@@ -919,51 +905,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['France', 'Germany']</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Sweden', 'Finland']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -975,89 +950,87 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>72</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['Norway', 'Germany']</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Germany', 'France']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>72</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['Finland', 'Netherlands']</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Germany', 'Norway']</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1065,7 +1038,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1078,28 +1051,27 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['France', 'Germany']</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Finland', 'Netherlands']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1111,24 +1083,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Norway', 'Germany']</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Germany', 'France']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1141,7 +1123,6 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1149,51 +1130,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['Sweden', 'England']</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Germany', 'Norway']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1205,89 +1175,87 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>40</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Italy']</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>40</v>
-      </c>
-      <c r="E18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Italy']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>['Sweden', 'Italy']</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1299,37 +1267,46 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>47</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1341,45 +1318,44 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Italy']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>['Sweden', 'Denmark']</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
@@ -1389,51 +1365,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>87</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['Norway', 'Germany']</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1441,7 +1406,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1454,88 +1419,76 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['France', 'Spain']</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Germany', 'Norway']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>46</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Denmark']</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Iceland', 'Norway']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1548,28 +1501,27 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Germany']</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1577,41 +1529,50 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['Russia', 'Germany']</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>Italy</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1619,49 +1580,48 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Germany']</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Denmark', 'Netherlands']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1631,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1684,28 +1644,27 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['France', 'Austria']</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Russia', 'Germany']</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1713,49 +1672,48 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'Austria']</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Sweden', 'Germany']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -1769,37 +1727,46 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>76</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['France', 'Austria']</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1807,51 +1774,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>19</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Spain', 'England']</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Austria']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1859,49 +1815,48 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['Portugal', 'England']</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>France</t>
+          <t>Scotland</t>
         </is>
       </c>
     </row>
@@ -1915,193 +1870,169 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>48</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['Spain', 'England']</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>7</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['Austria', 'England']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>['England', 'Spain']</t>
-        </is>
-      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" t="n">
-        <v>42</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['Spain', 'Germany']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>['Portugal', 'England']</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>48</v>
-      </c>
-      <c r="E35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>['England', 'Spain']</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2109,7 +2040,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2122,28 +2053,27 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['France', 'Iceland']</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['England', 'Austria']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2151,173 +2081,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>49</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['France', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>['Sweden', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>['Iceland', 'France']</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>49</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>['Belgium', 'France']</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
